--- a/examples/book.xlsx
+++ b/examples/book.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12555" activeTab="1"/>
+    <workbookView windowWidth="12000" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Demo" sheetId="1" r:id="rId1"/>
@@ -123,8 +123,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -158,6 +158,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -174,6 +181,95 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -183,127 +279,31 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,13 +336,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,90 +462,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -448,74 +514,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -527,6 +527,32 @@
       <left style="dashed">
         <color rgb="FF333333"/>
       </left>
+      <right style="dashed">
+        <color rgb="FF333333"/>
+      </right>
+      <top style="dashed">
+        <color rgb="FF333333"/>
+      </top>
+      <bottom style="dashed">
+        <color rgb="FF333333"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color rgb="FF333333"/>
+      </left>
+      <right/>
+      <top style="dashed">
+        <color rgb="FF333333"/>
+      </top>
+      <bottom style="dashed">
+        <color rgb="FF333333"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="dashed">
         <color rgb="FF333333"/>
       </right>
@@ -557,6 +583,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -568,6 +603,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,179 +677,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
@@ -810,16 +836,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1144,138 +1176,138 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" ht="32" customHeight="1" spans="1:6">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" ht="32" customHeight="1" spans="1:6">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" ht="32" customHeight="1" spans="1:6">
-      <c r="A3" s="6">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="8">
         <v>2</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="8">
         <v>3</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="8">
         <v>32</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="8">
         <v>43</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="8">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="6">
+      <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="8">
         <v>3</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="8">
         <v>4</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="8">
         <v>33</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="8">
         <v>44</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="8">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="6">
+      <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="8">
         <v>4</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="8">
         <v>5</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="8">
         <v>34</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="8">
         <v>45</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="8">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="6">
+      <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="8">
         <v>5</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="8">
         <v>6</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="8">
         <v>35</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="8">
         <v>46</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="8">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="6">
+      <c r="A7" s="8">
         <v>5</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="8">
         <v>6</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="8">
         <v>7</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="8">
         <v>36</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="8">
         <v>47</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1295,8 +1327,8 @@
   <sheetPr/>
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="14.25"/>
@@ -1363,10 +1395,10 @@
         <v>17</v>
       </c>
       <c r="L2" s="2"/>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="2"/>
+      <c r="N2" s="5"/>
       <c r="O2" s="2"/>
     </row>
     <row r="3" ht="16.9" spans="1:15">
@@ -1452,7 +1484,7 @@
       <c r="O4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Q4" s="4"/>
+      <c r="Q4" s="6"/>
     </row>
     <row r="5" ht="42.75" spans="1:15">
       <c r="A5" s="3" t="s">

--- a/examples/book.xlsx
+++ b/examples/book.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12000" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12555"/>
   </bookViews>
   <sheets>
     <sheet name="Demo" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="63">
   <si>
     <t>姓名</t>
   </si>
@@ -92,16 +92,46 @@
     <t>张三之歌</t>
   </si>
   <si>
-    <t>Song of Zhangsan</t>
-  </si>
-  <si>
-    <t>Chanson de trois</t>
-  </si>
-  <si>
-    <t>一个法外狂徒的自白</t>
-  </si>
-  <si>
-    <t>Confession of an Extralegal Madman</t>
+    <r>
+      <t>法文名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>中文副标题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>英文副标题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
   </si>
   <si>
     <t>Confession d'un maniaque extra - judiciaire</t>
@@ -113,7 +143,419 @@
     <t>用好</t>
   </si>
   <si>
-    <t>这本书真的不错哦</t>
+    <r>
+      <t>这本书真的不错哦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>李四之歌</t>
+  </si>
+  <si>
+    <r>
+      <t>法文名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>中文副标题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>英文副标题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>这本书真的不错哦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>法文名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>中文副标题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>英文副标题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>这本书真的不错哦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>王五之歌</t>
+  </si>
+  <si>
+    <r>
+      <t>法文名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>中文副标题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>英文副标题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>这本书真的不错哦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>法文名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>中文副标题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>英文副标题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>这本书真的不错哦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>法文名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>中文副标题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>英文副标题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>这本书真的不错哦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>法文名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>中文副标题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>英文副标题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>这本书真的不错哦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>法文名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>中文副标题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>英文副标题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>这本书真的不错哦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8</t>
+    </r>
+  </si>
+  <si>
+    <t>此处其他都是孔德</t>
   </si>
 </sst>
 </file>
@@ -121,10 +563,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -148,18 +590,39 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Droid Sans Fallback"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="DejaVu Sans"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Droid Sans Fallback"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,6 +636,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -181,53 +713,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,17 +737,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -262,52 +750,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -330,31 +772,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,31 +850,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,115 +892,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,15 +1040,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -637,21 +1070,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -677,155 +1095,179 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
@@ -833,19 +1275,25 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -853,6 +1301,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1175,147 +1626,148 @@
   <sheetPr/>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" ht="32" customHeight="1" spans="1:6">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" ht="32" customHeight="1" spans="1:6">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7" t="s">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" ht="32" customHeight="1" spans="1:6">
-      <c r="A3" s="8">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="10">
         <v>2</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="10">
         <v>3</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="10">
         <v>32</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="10">
         <v>43</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="10">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="8">
+      <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="10">
         <v>3</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="10">
         <v>4</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="10">
         <v>33</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="10">
         <v>44</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="10">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="8">
+      <c r="A5" s="10">
         <v>3</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="10">
         <v>4</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="10">
         <v>5</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="10">
         <v>34</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="10">
         <v>45</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="10">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="8">
+      <c r="A6" s="10">
         <v>4</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="10">
         <v>5</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="10">
         <v>6</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="10">
         <v>35</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="10">
         <v>46</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="12">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="8">
+      <c r="A7" s="10">
         <v>5</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="10">
         <v>6</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="10">
         <v>7</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="10">
         <v>36</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="10">
         <v>47</v>
       </c>
-      <c r="F7" s="8"/>
+      <c r="F7" s="12">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="F6:F7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1325,10 +1777,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="14.25"/>
@@ -1395,10 +1847,10 @@
         <v>17</v>
       </c>
       <c r="L2" s="2"/>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="5"/>
+      <c r="N2" s="7"/>
       <c r="O2" s="2"/>
     </row>
     <row r="3" ht="16.9" spans="1:15">
@@ -1442,371 +1894,386 @@
       <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4">
+        <v>213</v>
+      </c>
+      <c r="K4" s="4">
+        <v>32</v>
+      </c>
+      <c r="L4" s="4">
+        <v>24</v>
+      </c>
+      <c r="M4" s="4">
+        <v>65</v>
+      </c>
+      <c r="N4" s="4">
+        <v>122</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="3">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3">
-        <v>213</v>
-      </c>
-      <c r="K4" s="3">
-        <v>32</v>
-      </c>
-      <c r="L4" s="3">
-        <v>24</v>
-      </c>
-      <c r="M4" s="3">
-        <v>65</v>
-      </c>
-      <c r="N4" s="3">
-        <v>122</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q4" s="6"/>
+      <c r="Q4" s="8"/>
     </row>
     <row r="5" ht="42.75" spans="1:15">
-      <c r="A5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="4">
+        <v>2</v>
+      </c>
+      <c r="J5" s="4">
+        <v>214</v>
+      </c>
+      <c r="K5" s="4">
+        <v>33</v>
+      </c>
+      <c r="L5" s="4">
         <v>25</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="3">
-        <v>2</v>
-      </c>
-      <c r="J5" s="3">
-        <v>214</v>
-      </c>
-      <c r="K5" s="3">
-        <v>33</v>
-      </c>
-      <c r="L5" s="3">
-        <v>25</v>
-      </c>
-      <c r="M5" s="3">
+      <c r="M5" s="4">
         <v>66</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="4">
         <v>123</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" ht="42.75" spans="1:15">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3" t="s">
-        <v>25</v>
+      <c r="A6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="4">
+        <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="4">
+        <v>3</v>
+      </c>
+      <c r="J6" s="4">
+        <v>215</v>
+      </c>
+      <c r="K6" s="4">
+        <v>34</v>
+      </c>
+      <c r="L6" s="4">
         <v>26</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="3">
-        <v>3</v>
-      </c>
-      <c r="J6" s="3">
-        <v>215</v>
-      </c>
-      <c r="K6" s="3">
-        <v>34</v>
-      </c>
-      <c r="L6" s="3">
-        <v>26</v>
-      </c>
-      <c r="M6" s="3">
+      <c r="M6" s="4">
         <v>67</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="4">
         <v>124</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" ht="42.75" spans="1:15">
-      <c r="A7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>25</v>
+      <c r="A7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="4">
+        <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="4">
+        <v>4</v>
+      </c>
+      <c r="J7" s="4">
+        <v>216</v>
+      </c>
+      <c r="K7" s="4">
+        <v>35</v>
+      </c>
+      <c r="L7" s="4">
         <v>27</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="3">
-        <v>4</v>
-      </c>
-      <c r="J7" s="3">
-        <v>216</v>
-      </c>
-      <c r="K7" s="3">
-        <v>35</v>
-      </c>
-      <c r="L7" s="3">
-        <v>27</v>
-      </c>
-      <c r="M7" s="3">
+      <c r="M7" s="4">
         <v>68</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="4">
         <v>125</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" ht="42.75" spans="1:15">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3" t="s">
-        <v>25</v>
+      <c r="A8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="4">
+        <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="I8" s="4">
         <v>5</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="4">
         <v>217</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="4">
         <v>36</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="4">
         <v>28</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="4">
         <v>69</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="4">
         <v>126</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" ht="42.75" spans="1:15">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3" t="s">
-        <v>25</v>
+      <c r="A9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="4">
+        <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="I9" s="4">
         <v>6</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="4">
         <v>218</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="4">
         <v>37</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="4">
         <v>29</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="4">
         <v>70</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="4">
         <v>127</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" ht="42.75" spans="1:15">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3" t="s">
-        <v>25</v>
+      <c r="A10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="4">
+        <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="I10" s="4">
         <v>7</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="4">
         <v>219</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="4">
         <v>38</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="4">
         <v>30</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="4">
         <v>71</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="4">
         <v>128</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" ht="42.75" spans="1:15">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3" t="s">
-        <v>25</v>
+      <c r="A11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="4">
+        <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="4">
+        <v>8</v>
+      </c>
+      <c r="J11" s="4">
+        <v>220</v>
+      </c>
+      <c r="K11" s="4">
+        <v>39</v>
+      </c>
+      <c r="L11" s="4">
         <v>31</v>
       </c>
-      <c r="I11" s="3">
-        <v>8</v>
-      </c>
-      <c r="J11" s="3">
-        <v>220</v>
-      </c>
-      <c r="K11" s="3">
-        <v>39</v>
-      </c>
-      <c r="L11" s="3">
-        <v>31</v>
-      </c>
-      <c r="M11" s="3">
+      <c r="M11" s="4">
         <v>72</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11" s="4">
         <v>129</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>32</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" ht="15.4" spans="15:15">
+      <c r="O12" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="12">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:N1"/>
@@ -1814,8 +2281,6 @@
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A11"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>

--- a/examples/book.xlsx
+++ b/examples/book.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12555"/>
+    <workbookView windowWidth="28800" windowHeight="12630" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Demo" sheetId="1" r:id="rId1"/>
     <sheet name="书本" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="63">
   <si>
     <t>姓名</t>
   </si>
@@ -93,6 +94,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
       <t>法文名</t>
     </r>
     <r>
@@ -107,6 +114,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
       <t>中文副标题</t>
     </r>
     <r>
@@ -121,6 +134,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
       <t>英文副标题</t>
     </r>
     <r>
@@ -144,6 +163,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
       <t>这本书真的不错哦</t>
     </r>
     <r>
@@ -161,6 +186,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
       <t>法文名</t>
     </r>
     <r>
@@ -175,6 +206,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
       <t>中文副标题</t>
     </r>
     <r>
@@ -189,6 +226,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
       <t>英文副标题</t>
     </r>
     <r>
@@ -203,6 +246,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
       <t>这本书真的不错哦</t>
     </r>
     <r>
@@ -217,6 +266,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
       <t>法文名</t>
     </r>
     <r>
@@ -231,6 +286,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
       <t>中文副标题</t>
     </r>
     <r>
@@ -245,6 +306,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
       <t>英文副标题</t>
     </r>
     <r>
@@ -259,6 +326,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
       <t>这本书真的不错哦</t>
     </r>
     <r>
@@ -276,6 +349,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
       <t>法文名</t>
     </r>
     <r>
@@ -290,6 +369,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
       <t>中文副标题</t>
     </r>
     <r>
@@ -304,6 +389,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
       <t>英文副标题</t>
     </r>
     <r>
@@ -318,6 +409,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
       <t>这本书真的不错哦</t>
     </r>
     <r>
@@ -332,6 +429,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
       <t>法文名</t>
     </r>
     <r>
@@ -346,6 +449,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
       <t>中文副标题</t>
     </r>
     <r>
@@ -360,6 +469,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
       <t>英文副标题</t>
     </r>
     <r>
@@ -374,6 +489,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
       <t>这本书真的不错哦</t>
     </r>
     <r>
@@ -388,6 +509,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
       <t>法文名</t>
     </r>
     <r>
@@ -402,6 +529,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
       <t>中文副标题</t>
     </r>
     <r>
@@ -416,6 +549,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
       <t>英文副标题</t>
     </r>
     <r>
@@ -430,6 +569,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
       <t>这本书真的不错哦</t>
     </r>
     <r>
@@ -444,6 +589,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
       <t>法文名</t>
     </r>
     <r>
@@ -458,6 +609,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
       <t>中文副标题</t>
     </r>
     <r>
@@ -472,6 +629,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
       <t>英文副标题</t>
     </r>
     <r>
@@ -486,6 +649,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
       <t>这本书真的不错哦</t>
     </r>
     <r>
@@ -500,6 +669,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
       <t>法文名</t>
     </r>
     <r>
@@ -514,6 +689,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
       <t>中文副标题</t>
     </r>
     <r>
@@ -528,6 +709,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
       <t>英文副标题</t>
     </r>
     <r>
@@ -542,6 +729,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
       <t>这本书真的不错哦</t>
     </r>
     <r>
@@ -563,10 +756,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -574,6 +767,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -615,13 +815,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -636,86 +829,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -737,10 +853,56 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -750,6 +912,37 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -760,37 +953,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFE0EBF5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -802,115 +1133,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -920,49 +1149,65 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1007,21 +1252,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1055,27 +1285,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1096,11 +1309,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1119,187 +1338,223 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1626,139 +1881,139 @@
   <sheetPr/>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" ht="32" customHeight="1" spans="1:6">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" ht="32" customHeight="1" spans="1:6">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9" t="s">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" ht="32" customHeight="1" spans="1:6">
-      <c r="A3" s="10">
+      <c r="A3" s="19">
         <v>1</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="19">
         <v>2</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="19">
         <v>3</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="19">
         <v>32</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="19">
         <v>43</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="19">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="10">
+      <c r="A4" s="19">
         <v>2</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="19">
         <v>3</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="19">
         <v>4</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="19">
         <v>33</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="19">
         <v>44</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="19">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="10">
+      <c r="A5" s="19">
         <v>3</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="19">
         <v>4</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="19">
         <v>5</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="19">
         <v>34</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="19">
         <v>45</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="19">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="10">
+      <c r="A6" s="19">
         <v>4</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="19">
         <v>5</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="19">
         <v>6</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="19">
         <v>35</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="19">
         <v>46</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="21">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="10">
+      <c r="A7" s="19">
         <v>5</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="19">
         <v>6</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="19">
         <v>7</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="19">
         <v>36</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="19">
         <v>47</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="21">
         <v>55</v>
       </c>
     </row>
@@ -1796,479 +2051,479 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.85" spans="1:15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="1" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="11"/>
+      <c r="I1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="1" t="s">
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" ht="16.85" spans="1:15">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="1" t="s">
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="6" t="s">
+      <c r="L2" s="11"/>
+      <c r="M2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="2"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="11"/>
     </row>
     <row r="3" ht="16.9" spans="1:15">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2" t="s">
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="2"/>
+      <c r="O3" s="11"/>
     </row>
     <row r="4" ht="42.75" spans="1:17">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="13">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="13">
         <v>1</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="13">
         <v>213</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="13">
         <v>32</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="13">
         <v>24</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="13">
         <v>65</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="13">
         <v>122</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="Q4" s="8"/>
+      <c r="Q4" s="17"/>
     </row>
     <row r="5" ht="42.75" spans="1:15">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="13">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="13">
         <v>2</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="13">
         <v>214</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="13">
         <v>33</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="13">
         <v>25</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="13">
         <v>66</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="13">
         <v>123</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="O5" s="12" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" ht="42.75" spans="1:15">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="13">
         <v>3</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="13">
         <v>3</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="13">
         <v>215</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="13">
         <v>34</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="13">
         <v>26</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="13">
         <v>67</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="13">
         <v>124</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="O6" s="12" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="7" ht="42.75" spans="1:15">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="13">
         <v>4</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="13">
         <v>4</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="13">
         <v>216</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="13">
         <v>35</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="13">
         <v>27</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="13">
         <v>68</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="13">
         <v>125</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="O7" s="12" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" ht="42.75" spans="1:15">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="13">
         <v>5</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="13">
         <v>5</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="13">
         <v>217</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="13">
         <v>36</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="13">
         <v>28</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="13">
         <v>69</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="13">
         <v>126</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="O8" s="12" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" ht="42.75" spans="1:15">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="13">
         <v>6</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="13">
         <v>6</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="13">
         <v>218</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="13">
         <v>37</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="13">
         <v>29</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="13">
         <v>70</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="13">
         <v>127</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="O9" s="12" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="10" ht="42.75" spans="1:15">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="13">
         <v>7</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="13">
         <v>7</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="13">
         <v>219</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="13">
         <v>38</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="13">
         <v>30</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="13">
         <v>71</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="13">
         <v>128</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="O10" s="12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="11" ht="42.75" spans="1:15">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="13">
         <v>8</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="13">
         <v>8</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="13">
         <v>220</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="13">
         <v>39</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="13">
         <v>31</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="13">
         <v>72</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="13">
         <v>129</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="O11" s="12" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="12" ht="15.4" spans="15:15">
-      <c r="O12" s="3" t="s">
+      <c r="O12" s="12" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2290,4 +2545,164 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="1" ht="32" customHeight="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" ht="32" customHeight="1" spans="1:7">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="32" customHeight="1" spans="1:7">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="8">
+        <v>32</v>
+      </c>
+      <c r="F3" s="8">
+        <v>43</v>
+      </c>
+      <c r="G3" s="9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="8">
+        <v>33</v>
+      </c>
+      <c r="F4" s="8">
+        <v>44</v>
+      </c>
+      <c r="G4" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="8">
+        <v>34</v>
+      </c>
+      <c r="F5" s="8">
+        <v>45</v>
+      </c>
+      <c r="G5" s="9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="8">
+        <v>35</v>
+      </c>
+      <c r="F6" s="8">
+        <v>46</v>
+      </c>
+      <c r="G6" s="9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="8">
+        <v>36</v>
+      </c>
+      <c r="F7" s="8">
+        <v>47</v>
+      </c>
+      <c r="G7" s="9">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>